--- a/exparel_field.xlsx
+++ b/exparel_field.xlsx
@@ -7491,13 +7491,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -7515,7 +7521,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -7544,13 +7557,13 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -7872,7 +7885,7 @@
   <cols>
     <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="70.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
